--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>630837.5084773931</v>
+        <v>637969.6303667469</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443467</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5246284.349180727</v>
+        <v>5246284.349180725</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="W2" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="X2" t="n">
         <v>205.5178444382804</v>
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>125.2000597604659</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>47.29627918133471</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="C5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,10 +975,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>129.0037164986567</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -987,16 +987,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>65.49887373836052</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,70 +1133,70 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="F8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1212,22 +1212,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>24.5537323853639</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1379,19 +1379,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>205.5178444382804</v>
+        <v>19.20171008547518</v>
       </c>
       <c r="H11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="I11" t="n">
-        <v>31.1509994400877</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1449,22 +1449,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -1506,16 +1506,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>90.87689320356448</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>205.5178444382804</v>
@@ -1649,16 +1649,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>107.2644082870342</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1862,10 +1862,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,28 +1886,28 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>132.876626399942</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>68.3854176612075</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>62.88143347497289</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1941,10 +1941,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,19 +2160,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>123.3342443606757</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>26.03884259583682</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,70 +2318,70 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>190.3453970742848</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2448,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2460,10 +2460,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>83.03189205754171</v>
       </c>
     </row>
     <row r="25">
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,10 +2646,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>102.7828989177425</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>97.48188567889162</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,10 +2688,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2713,67 +2713,67 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,13 +2804,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,16 +2837,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>148.3218985647344</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>143.4027167768713</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2889,10 +2889,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2989,13 +2989,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>241.0142888776591</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3071,13 +3071,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>202.2946864288972</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>12.94771755361639</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3348,10 +3348,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>12.94771755361648</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>37.18582309281558</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>39.82778746869524</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>241.0142888776591</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3579,28 +3579,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>68.30636490351333</v>
+        <v>56.26539607665198</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>205.5178444382804</v>
@@ -3752,61 +3752,61 @@
         <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>14.48693373137008</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3876,7 +3876,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="43">
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,13 +4019,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>159.0801288120801</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>42.14629172736426</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>42.14629172736426</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4334,13 +4334,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4364,16 +4364,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W2" t="n">
         <v>639.2227743377304</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>431.628992076841</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C3" t="n">
         <v>16.44142755506243</v>
@@ -4425,34 +4425,34 @@
         <v>752.1869855945927</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>594.4371414772538</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>392.2505468360198</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>184.6567645751305</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>184.6567645751305</v>
+        <v>774.2973583780361</v>
       </c>
       <c r="W3" t="n">
-        <v>184.6567645751305</v>
+        <v>774.2973583780361</v>
       </c>
       <c r="X3" t="n">
-        <v>184.6567645751305</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="Y3" t="n">
-        <v>184.6567645751305</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4504,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C5" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D5" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
         <v>16.44142755506243</v>
@@ -4571,16 +4571,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4604,13 +4604,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y5" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="X5" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>446.2622584721643</v>
+        <v>480.4386961837225</v>
       </c>
       <c r="C6" t="n">
-        <v>446.2622584721643</v>
+        <v>305.9856669025954</v>
       </c>
       <c r="D6" t="n">
-        <v>446.2622584721643</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E6" t="n">
-        <v>287.0248034667088</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>287.0248034667088</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4656,10 +4656,10 @@
         <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>570.0333416264414</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P6" t="n">
         <v>752.6768192397923</v>
@@ -4671,25 +4671,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U6" t="n">
-        <v>614.4775954922324</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V6" t="n">
-        <v>614.4775954922324</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W6" t="n">
-        <v>614.4775954922324</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="X6" t="n">
-        <v>614.4775954922324</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="Y6" t="n">
-        <v>614.4775954922324</v>
+        <v>648.6540332037905</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4741,34 +4741,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
         <v>16.44142755506243</v>
@@ -4814,7 +4814,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O8" t="n">
         <v>822.0713777531216</v>
@@ -4844,10 +4844,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>822.0713777531216</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="C9" t="n">
-        <v>814.3015730003187</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="D9" t="n">
-        <v>665.3671633390675</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="E9" t="n">
-        <v>506.1297083336119</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="F9" t="n">
-        <v>359.5951503604969</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8643249431123</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="H9" t="n">
         <v>107.4951893506917</v>
@@ -4887,46 +4887,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="X9" t="n">
-        <v>822.0713777531216</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="Y9" t="n">
-        <v>822.0713777531216</v>
+        <v>132.2969392348976</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4978,34 +4978,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>670.6884303378189</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="C11" t="n">
-        <v>670.6884303378189</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="D11" t="n">
-        <v>670.6884303378189</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="E11" t="n">
-        <v>670.6884303378189</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="F11" t="n">
         <v>463.0946480769296</v>
       </c>
       <c r="G11" t="n">
-        <v>255.5008658160403</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="H11" t="n">
-        <v>47.90708355515102</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5069,22 +5069,22 @@
         <v>670.6884303378189</v>
       </c>
       <c r="T11" t="n">
-        <v>670.6884303378189</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U11" t="n">
-        <v>670.6884303378189</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V11" t="n">
-        <v>670.6884303378189</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W11" t="n">
-        <v>670.6884303378189</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X11" t="n">
-        <v>670.6884303378189</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y11" t="n">
-        <v>670.6884303378189</v>
+        <v>463.0946480769296</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>107.4951893506917</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C12" t="n">
-        <v>107.4951893506917</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D12" t="n">
-        <v>107.4951893506917</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E12" t="n">
-        <v>107.4951893506917</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F12" t="n">
-        <v>107.4951893506917</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G12" t="n">
-        <v>107.4951893506917</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H12" t="n">
         <v>107.4951893506917</v>
@@ -5124,19 +5124,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>142.2888212580996</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M12" t="n">
-        <v>345.7514872519972</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N12" t="n">
-        <v>549.2141532458947</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5154,16 +5154,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>730.2765361333595</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>522.6827538724702</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X12" t="n">
-        <v>315.088971611581</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y12" t="n">
-        <v>107.4951893506917</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5215,34 +5215,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F14" t="n">
-        <v>651.2927635848137</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="G14" t="n">
         <v>443.6989813239244</v>
@@ -5279,13 +5279,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5297,31 +5297,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>614.4775954922324</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D15" t="n">
-        <v>614.4775954922324</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E15" t="n">
         <v>506.1297083336119</v>
@@ -5358,19 +5358,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M15" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5388,19 +5388,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C17" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D17" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U17" t="n">
-        <v>231.8830517671884</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V17" t="n">
-        <v>231.8830517671884</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="W17" t="n">
-        <v>231.8830517671884</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="X17" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y17" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5695,13 +5695,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>325.7766548071333</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C20" t="n">
-        <v>325.7766548071333</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D20" t="n">
-        <v>82.32787816303323</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>319.0683498528888</v>
+        <v>466.183833194304</v>
       </c>
       <c r="C21" t="n">
-        <v>144.6153205717618</v>
+        <v>466.183833194304</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,13 +5838,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>836.5857648556059</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>634.399170214372</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>634.399170214372</v>
       </c>
       <c r="V21" t="n">
-        <v>487.2836868729568</v>
+        <v>634.399170214372</v>
       </c>
       <c r="W21" t="n">
-        <v>487.2836868729568</v>
+        <v>634.399170214372</v>
       </c>
       <c r="X21" t="n">
-        <v>487.2836868729568</v>
+        <v>634.399170214372</v>
       </c>
       <c r="Y21" t="n">
-        <v>487.2836868729568</v>
+        <v>634.399170214372</v>
       </c>
     </row>
     <row r="22">
@@ -5938,10 +5938,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>518.2486856454962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>518.2486856454962</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D23" t="n">
-        <v>518.2486856454962</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E23" t="n">
-        <v>274.7999090013961</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F23" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>518.2486856454962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>518.2486856454962</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>55.04605772994853</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6072,19 +6072,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6096,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>298.4948343740486</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W24" t="n">
-        <v>55.04605772994853</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X24" t="n">
-        <v>55.04605772994853</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y24" t="n">
-        <v>55.04605772994853</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6254,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V26" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X26" t="n">
-        <v>274.7999090013961</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>411.6785506544679</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C27" t="n">
-        <v>237.2255213733409</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D27" t="n">
-        <v>237.2255213733409</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E27" t="n">
-        <v>237.2255213733409</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F27" t="n">
-        <v>237.2255213733409</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G27" t="n">
-        <v>133.4044113554191</v>
+        <v>118.5018269537981</v>
       </c>
       <c r="H27" t="n">
         <v>20.03527576299844</v>
@@ -6306,10 +6306,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
         <v>304.2053859195205</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>619.4388494194218</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>619.4388494194218</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y27" t="n">
-        <v>411.6785506544679</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="28">
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
         <v>19.28114311021272</v>
@@ -6421,13 +6421,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F29" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>432.9682111954345</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="C30" t="n">
-        <v>258.5151819143075</v>
+        <v>164.8865048305452</v>
       </c>
       <c r="D30" t="n">
-        <v>109.5807722530562</v>
+        <v>164.8865048305452</v>
       </c>
       <c r="E30" t="n">
-        <v>109.5807722530562</v>
+        <v>164.8865048305452</v>
       </c>
       <c r="F30" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6549,16 +6549,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6579,13 +6579,13 @@
         <v>790.6398109613051</v>
       </c>
       <c r="W30" t="n">
-        <v>790.6398109613051</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X30" t="n">
-        <v>582.7883107557723</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y30" t="n">
-        <v>582.7883107557723</v>
+        <v>339.3395341116723</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C31" t="n">
         <v>829.5248650203655</v>
@@ -6637,34 +6637,34 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>874.2758585542716</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="C32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,10 +6783,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
         <v>542.809531908403</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>950.9786529312257</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>777.5613083818946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>777.5613083818946</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>777.5613083818946</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>777.5613083818946</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>777.5613083818946</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X33" t="n">
-        <v>569.7098081763618</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y33" t="n">
-        <v>361.9495094114078</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H34" t="n">
         <v>829.5248650203655</v>
@@ -6880,28 +6880,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6962,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>206.8126749707503</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C36" t="n">
-        <v>32.35964568962331</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>56.84258057770322</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7017,22 +7017,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>582.7883107557723</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y36" t="n">
-        <v>375.0280119908184</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="J37" t="n">
         <v>829.5248650203655</v>
@@ -7123,22 +7123,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
         <v>506.1786963984129</v>
@@ -7205,19 +7205,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>486.9119902784999</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C39" t="n">
-        <v>486.9119902784999</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D39" t="n">
-        <v>486.9119902784999</v>
+        <v>235.3523315264278</v>
       </c>
       <c r="E39" t="n">
-        <v>486.9119902784999</v>
+        <v>76.1148765209723</v>
       </c>
       <c r="F39" t="n">
-        <v>340.3774323053849</v>
+        <v>76.1148765209723</v>
       </c>
       <c r="G39" t="n">
-        <v>201.6466068880004</v>
+        <v>76.1148765209723</v>
       </c>
       <c r="H39" t="n">
-        <v>88.27747129557973</v>
+        <v>76.1148765209723</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7260,16 +7260,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7287,16 +7287,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X39" t="n">
-        <v>862.8876260635219</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y39" t="n">
-        <v>655.1273272985679</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="40">
@@ -7354,19 +7354,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
         <v>829.5248650203655</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D41" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7418,13 +7418,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7454,7 +7454,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
         <v>16.44142755506243</v>
@@ -7494,19 +7494,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>211.6833797714288</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7524,16 +7524,16 @@
         <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W42" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X42" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y42" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V44" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W44" t="n">
-        <v>651.2927635848137</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X44" t="n">
-        <v>651.2927635848137</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y44" t="n">
-        <v>443.6989813239244</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>233.4664686820119</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C45" t="n">
-        <v>59.01343940088492</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
         <v>16.44142755506243</v>
@@ -7728,22 +7728,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M45" t="n">
-        <v>345.2616536067974</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7843,10 +7843,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
         <v>16.44142755506243</v>
@@ -7982,7 +7982,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
@@ -7991,7 +7991,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8073,10 +8073,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>134.4691888741278</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,19 +8219,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8304,13 +8304,13 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>131.836493543131</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8462,10 +8462,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8535,22 +8535,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,22 +8772,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>139.0491612396719</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,16 +8927,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M14" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -9018,10 +9018,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M18" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9258,10 +9258,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,16 +9486,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9720,13 +9720,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>197.6503338623806</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -10197,7 +10197,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,13 +10431,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10908,10 +10908,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,16 +11066,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,10 +11142,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>335.768472927719</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>269.2526134200356</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
@@ -11157,7 +11157,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11306,13 +11306,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22604,10 +22604,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X2" t="n">
         <v>164.2132562401886</v>
@@ -22626,7 +22626,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22671,28 +22671,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>46.48311134337187</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>185.5043079680906</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,16 +22781,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E5" t="n">
-        <v>200.9102526910243</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22844,13 +22844,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -22863,10 +22863,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>18.44134906598205</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -22875,16 +22875,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>71.84464342485012</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,13 +22911,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22960,10 +22960,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23021,16 +23021,16 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>200.9102526910243</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23084,7 +23084,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -23100,22 +23100,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>87.68171185113256</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23145,10 +23145,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23157,10 +23157,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23197,10 +23197,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23267,19 +23267,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>396.1010274296599</v>
       </c>
       <c r="H11" t="n">
         <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
-        <v>179.3248901303182</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23337,22 +23337,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23394,16 +23394,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>141.9236939458608</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,10 +23504,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>237.8052177150866</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>133.9569576774867</v>
@@ -23537,16 +23537,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>213.8848386932009</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23574,13 +23574,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>50.38067216836671</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23628,7 +23628,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23750,10 +23750,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,28 +23774,28 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>118.4690265078945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>301.3456830172615</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23808,10 +23808,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>103.6517501748945</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23829,10 +23829,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23944,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,25 +23966,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>319.5141023699695</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24014,7 +24014,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24026,7 +24026,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,19 +24048,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>24.11082120396306</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,7 +24096,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>145.644328508001</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24178,13 +24178,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24206,28 +24206,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24260,16 +24260,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>158.8955716431282</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,7 +24285,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24294,7 +24294,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>109.6619469198454</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24336,10 +24336,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24348,10 +24348,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>122.6508037197626</v>
       </c>
     </row>
     <row r="25">
@@ -24379,7 +24379,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24412,7 +24412,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24446,7 +24446,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24494,22 +24494,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>22.7597532753017</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24534,10 +24534,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>34.56061824546812</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>14.75355855760485</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,10 +24576,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24588,7 +24588,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24692,13 +24692,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24725,16 +24725,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24756,19 +24756,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>18.21128508513294</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>1.666495616512549</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24777,10 +24777,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24819,7 +24819,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24877,13 +24877,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24917,7 +24917,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>270.8624047773015</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24959,13 +24959,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>6.725383157348119</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25014,10 +25014,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>54.73595870413449</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,28 +25041,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>87.21011659902675</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25090,7 +25090,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25175,7 +25175,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0.7562331984329429</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25202,13 +25202,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25236,10 +25236,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>134.4973480110223</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>120.4592573625854</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25281,7 +25281,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25333,7 +25333,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>22.26949182588285</v>
@@ -25363,7 +25363,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>178.7568658833995</v>
       </c>
     </row>
     <row r="38">
@@ -25391,7 +25391,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>152.9875061275654</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>113.6687527430239</v>
@@ -25445,7 +25445,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25467,28 +25467,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>21.09026794790175</v>
+        <v>33.1312367747631</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25527,16 +25527,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25594,7 +25594,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,7 +25631,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>173.6629242394456</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>176.4125256339814</v>
@@ -25640,7 +25640,7 @@
         <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>158.2215652569457</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25764,7 +25764,7 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>24.66257839606692</v>
       </c>
     </row>
     <row r="43">
@@ -25886,7 +25886,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,13 +25907,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25925,7 +25925,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>190.1608399053329</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,13 +25941,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>124.3868919225031</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>105.2987738372745</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -26083,13 +26083,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>441976.46797304</v>
+        <v>441976.4679730398</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>441976.4679730399</v>
+        <v>441976.46797304</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>465547.6078130902</v>
+        <v>465547.6078130901</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>465547.6078130901</v>
+        <v>465547.6078130902</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>465547.6078130901</v>
+        <v>465547.60781309</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>465547.6078130902</v>
+        <v>465547.6078130901</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>465547.6078130902</v>
+        <v>465547.6078130901</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>441976.4679730398</v>
+        <v>441976.46797304</v>
       </c>
     </row>
     <row r="16">
@@ -26317,7 +26317,7 @@
         <v>149869.759743185</v>
       </c>
       <c r="D2" t="n">
-        <v>149869.7597431851</v>
+        <v>149869.759743185</v>
       </c>
       <c r="E2" t="n">
         <v>149869.759743185</v>
@@ -26326,10 +26326,10 @@
         <v>149869.759743185</v>
       </c>
       <c r="G2" t="n">
+        <v>157852.6389047657</v>
+      </c>
+      <c r="H2" t="n">
         <v>157852.6389047658</v>
-      </c>
-      <c r="H2" t="n">
-        <v>157852.6389047657</v>
       </c>
       <c r="I2" t="n">
         <v>157852.6389047658</v>
@@ -26344,10 +26344,10 @@
         <v>157852.6389047657</v>
       </c>
       <c r="M2" t="n">
+        <v>157852.6389047658</v>
+      </c>
+      <c r="N2" t="n">
         <v>157852.6389047657</v>
-      </c>
-      <c r="N2" t="n">
-        <v>157852.6389047658</v>
       </c>
       <c r="O2" t="n">
         <v>149869.759743185</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="C4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="D4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="E4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="F4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="G4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="H4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="I4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="K4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="L4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="M4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="N4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="O4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="P4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5808.231180972798</v>
+        <v>-4975.374633249376</v>
       </c>
       <c r="C6" t="n">
-        <v>63065.52540071708</v>
+        <v>63898.38194844051</v>
       </c>
       <c r="D6" t="n">
-        <v>63065.52540071714</v>
+        <v>63898.38194844048</v>
       </c>
       <c r="E6" t="n">
-        <v>96693.12540071702</v>
+        <v>97525.9819484405</v>
       </c>
       <c r="F6" t="n">
-        <v>96693.12540071706</v>
+        <v>97525.98194844046</v>
       </c>
       <c r="G6" t="n">
-        <v>90574.67290692151</v>
+        <v>91452.50181094083</v>
       </c>
       <c r="H6" t="n">
-        <v>100303.7158810886</v>
+        <v>101181.544785108</v>
       </c>
       <c r="I6" t="n">
-        <v>100303.7158810886</v>
+        <v>101181.544785108</v>
       </c>
       <c r="J6" t="n">
-        <v>46531.20499087915</v>
+        <v>47409.03389489849</v>
       </c>
       <c r="K6" t="n">
-        <v>100303.7158810886</v>
+        <v>101181.544785108</v>
       </c>
       <c r="L6" t="n">
-        <v>100303.7158810885</v>
+        <v>101181.5447851079</v>
       </c>
       <c r="M6" t="n">
-        <v>100303.7158810886</v>
+        <v>101181.544785108</v>
       </c>
       <c r="N6" t="n">
-        <v>100303.7158810886</v>
+        <v>101181.5447851079</v>
       </c>
       <c r="O6" t="n">
-        <v>96693.12540071705</v>
+        <v>97525.98194844046</v>
       </c>
       <c r="P6" t="n">
-        <v>96693.12540071704</v>
+        <v>97525.98194844047</v>
       </c>
     </row>
   </sheetData>
@@ -34702,7 +34702,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
@@ -34711,7 +34711,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34793,10 +34793,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>0.494781459797586</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,19 +34939,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35024,13 +35024,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>21.52426467247106</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35182,10 +35182,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4947814597977008</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,16 +35647,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M18" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35978,10 +35978,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>55.51629994036225</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36917,7 +36917,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,10 +37628,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,16 +37786,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,10 +37862,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38026,13 +38026,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>197.2140931478448</v>
+      </c>
+      <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
       <c r="N45" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>637969.6303667469</v>
+        <v>638753.7763047757</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5246284.349180725</v>
+        <v>5246284.349180726</v>
       </c>
     </row>
     <row r="11">
@@ -656,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="T2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -792,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
         <v>47.29627918133471</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -899,67 +901,67 @@
         <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -975,16 +977,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>129.0037164986567</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>125.7855923313499</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1023,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>39.82778746869523</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1215,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>24.5537323853639</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>32.82846049034082</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1269,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1382,61 +1384,61 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>19.20171008547518</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I11" t="n">
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1500,13 +1502,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>185.6266417984382</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1622,13 +1624,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -1658,13 +1660,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
-        <v>9.211010870930394</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,22 +1688,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -1731,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>29.90684812882265</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1853,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1865,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V17" t="n">
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>68.3854176612075</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1920,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>62.88143347497289</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,13 +2162,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2175,13 +2177,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,10 +2210,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>26.03884259583682</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2223,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>8.761484343574239</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2318,28 +2320,28 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2375,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>83.03189205754171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2491,40 +2493,40 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2558,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,16 +2648,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>97.48188567889162</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>103.5294902440005</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2700,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2764,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2868,19 +2870,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>143.4027167768713</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2889,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2931,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>101.4419566141382</v>
       </c>
     </row>
     <row r="31">
@@ -3029,25 +3031,25 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>94.41048699370604</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.66067414728059</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>28.41964442677785</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3199,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3278,16 +3280,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J35" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>37.18582309281558</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3393,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3445,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>39.82778746869524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,61 +3505,61 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="D38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>212.285385643442</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3582,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3591,19 +3593,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>56.26539607665198</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3639,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3746,59 +3748,59 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="V41" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3873,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>205.5178444382804</v>
+        <v>14.48693373137006</v>
       </c>
       <c r="V42" t="n">
         <v>205.5178444382804</v>
@@ -3885,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="43">
@@ -3974,23 +3976,23 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
+      <c r="F44" t="n">
+        <v>9.211010870930394</v>
+      </c>
+      <c r="G44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>42.14629172736426</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,16 +4115,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>180.2735260549796</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4334,10 +4336,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
         <v>583.2163723184226</v>
@@ -4355,25 +4357,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W2" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X2" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4413,16 +4415,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
         <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
         <v>822.0713777531216</v>
@@ -4440,16 +4442,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V3" t="n">
-        <v>774.2973583780361</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="W3" t="n">
-        <v>774.2973583780361</v>
+        <v>359.1097938562575</v>
       </c>
       <c r="X3" t="n">
-        <v>566.7035761171468</v>
+        <v>359.1097938562575</v>
       </c>
       <c r="Y3" t="n">
         <v>359.1097938562575</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4571,10 +4573,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4607,10 +4609,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y5" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>480.4386961837225</v>
+        <v>451.6694460918196</v>
       </c>
       <c r="C6" t="n">
-        <v>305.9856669025954</v>
+        <v>451.6694460918196</v>
       </c>
       <c r="D6" t="n">
-        <v>175.6788825605179</v>
+        <v>302.7350364305683</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>143.4975814251128</v>
       </c>
       <c r="F6" t="n">
         <v>16.44142755506243</v>
@@ -4671,25 +4673,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>648.6540332037905</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U6" t="n">
-        <v>648.6540332037905</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V6" t="n">
-        <v>648.6540332037905</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W6" t="n">
-        <v>648.6540332037905</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X6" t="n">
-        <v>648.6540332037905</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="Y6" t="n">
-        <v>648.6540332037905</v>
+        <v>619.8847831118876</v>
       </c>
     </row>
     <row r="7">
@@ -4720,10 +4722,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4805,19 +4807,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>132.2969392348976</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C9" t="n">
-        <v>132.2969392348976</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D9" t="n">
-        <v>132.2969392348976</v>
+        <v>50.35562130920252</v>
       </c>
       <c r="E9" t="n">
-        <v>132.2969392348976</v>
+        <v>50.35562130920252</v>
       </c>
       <c r="F9" t="n">
-        <v>132.2969392348976</v>
+        <v>50.35562130920252</v>
       </c>
       <c r="G9" t="n">
-        <v>132.2969392348976</v>
+        <v>50.35562130920252</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>50.35562130920252</v>
       </c>
       <c r="I9" t="n">
         <v>17.19556020784815</v>
@@ -4884,49 +4886,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M9" t="n">
-        <v>548.724319600695</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N9" t="n">
-        <v>752.1869855945927</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>339.8907214957869</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>132.2969392348976</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X9" t="n">
-        <v>132.2969392348976</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y9" t="n">
-        <v>132.2969392348976</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>463.0946480769296</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>463.0946480769296</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>463.0946480769296</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>463.0946480769296</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>463.0946480769296</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5063,28 +5065,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
-        <v>463.0946480769296</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X11" t="n">
-        <v>463.0946480769296</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y11" t="n">
-        <v>463.0946480769296</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>822.0713777531216</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C12" t="n">
-        <v>814.3015730003187</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D12" t="n">
-        <v>665.3671633390675</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E12" t="n">
-        <v>506.1297083336119</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I12" t="n">
         <v>17.19556020784815</v>
@@ -5124,19 +5126,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>232.5025681519757</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M12" t="n">
-        <v>435.9652341458732</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5148,22 +5150,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>204.697218590109</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>204.697218590109</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0713777531216</v>
+        <v>204.697218590109</v>
       </c>
       <c r="Y12" t="n">
-        <v>822.0713777531216</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5297,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S14" t="n">
-        <v>453.0030327087026</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T14" t="n">
-        <v>443.6989813239244</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="U14" t="n">
-        <v>443.6989813239244</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="V14" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W14" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X14" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y14" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H15" t="n">
         <v>107.4951893506917</v>
@@ -5361,16 +5363,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O15" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5379,28 +5381,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>107.4951893506917</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>100.4273118130612</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>100.4273118130612</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>900.5405560409666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>726.0875267598396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
         <v>19.28114311021272</v>
@@ -5598,46 +5600,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>248.2447175439888</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M18" t="n">
-        <v>486.8488635328713</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5695,13 +5697,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>466.183833194304</v>
+        <v>685.8223048580254</v>
       </c>
       <c r="C21" t="n">
-        <v>466.183833194304</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="D21" t="n">
-        <v>317.2494235330527</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E21" t="n">
-        <v>158.0119685275972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>836.5857648556059</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>634.399170214372</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>634.399170214372</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>634.399170214372</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W21" t="n">
-        <v>634.399170214372</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X21" t="n">
-        <v>634.399170214372</v>
+        <v>854.0376418780934</v>
       </c>
       <c r="Y21" t="n">
-        <v>634.399170214372</v>
+        <v>854.0376418780934</v>
       </c>
     </row>
     <row r="22">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C23" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D23" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E23" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G23" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="24">
@@ -6042,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6069,16 +6071,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>728.9050472788936</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W24" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X24" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>257.2326523711826</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="C27" t="n">
-        <v>257.2326523711826</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D27" t="n">
-        <v>257.2326523711826</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E27" t="n">
-        <v>257.2326523711826</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F27" t="n">
-        <v>257.2326523711826</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G27" t="n">
-        <v>118.5018269537981</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,13 +6311,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>758.3123833928144</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>758.3123833928144</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>758.3123833928144</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>758.3123833928144</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>514.8636067487143</v>
       </c>
       <c r="X27" t="n">
-        <v>257.2326523711826</v>
+        <v>514.8636067487143</v>
       </c>
       <c r="Y27" t="n">
-        <v>257.2326523711826</v>
+        <v>307.1033079837604</v>
       </c>
     </row>
     <row r="28">
@@ -6412,13 +6414,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>72.23626279480629</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>72.23626279480629</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>72.23626279480629</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G29" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6493,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U29" t="n">
-        <v>559.1338160830064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V29" t="n">
-        <v>559.1338160830064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W29" t="n">
-        <v>559.1338160830064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X29" t="n">
-        <v>559.1338160830064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y29" t="n">
-        <v>559.1338160830064</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>339.3395341116723</v>
+        <v>592.2056662008901</v>
       </c>
       <c r="C30" t="n">
-        <v>164.8865048305452</v>
+        <v>417.752636919763</v>
       </c>
       <c r="D30" t="n">
-        <v>164.8865048305452</v>
+        <v>268.8182272585117</v>
       </c>
       <c r="E30" t="n">
-        <v>164.8865048305452</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>547.1910343172051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X30" t="n">
-        <v>339.3395341116723</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y30" t="n">
-        <v>339.3395341116723</v>
+        <v>760.421003220958</v>
       </c>
     </row>
     <row r="31">
@@ -6677,22 +6679,22 @@
         <v>114.6452713866835</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>55.04605772994853</v>
+        <v>284.787934186969</v>
       </c>
       <c r="C33" t="n">
-        <v>55.04605772994853</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D33" t="n">
-        <v>55.04605772994853</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E33" t="n">
-        <v>55.04605772994853</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F33" t="n">
-        <v>55.04605772994853</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G33" t="n">
-        <v>55.04605772994853</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H33" t="n">
-        <v>55.04605772994853</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6783,13 +6785,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>660.7635699719909</v>
       </c>
       <c r="U33" t="n">
-        <v>533.6469426057913</v>
+        <v>660.7635699719909</v>
       </c>
       <c r="V33" t="n">
-        <v>298.4948343740486</v>
+        <v>660.7635699719909</v>
       </c>
       <c r="W33" t="n">
-        <v>55.04605772994853</v>
+        <v>660.7635699719909</v>
       </c>
       <c r="X33" t="n">
-        <v>55.04605772994853</v>
+        <v>660.7635699719909</v>
       </c>
       <c r="Y33" t="n">
-        <v>55.04605772994853</v>
+        <v>453.003271207037</v>
       </c>
     </row>
     <row r="34">
@@ -6847,7 +6849,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
         <v>829.5248650203655</v>
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C35" t="n">
-        <v>30.58726043968704</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D35" t="n">
-        <v>30.58726043968704</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E35" t="n">
-        <v>30.58726043968704</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F35" t="n">
-        <v>30.58726043968704</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G35" t="n">
-        <v>30.58726043968704</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H35" t="n">
-        <v>30.58726043968704</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I35" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6964,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y35" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>380.2300195200815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>205.7769902389545</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>56.84258057770322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7017,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X36" t="n">
-        <v>756.2056553051034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>548.4453565401495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>923.8270671584188</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>923.8270671584188</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>923.8270671584188</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>923.8270671584188</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>923.8270671584188</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>923.8270671584188</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>923.8270671584188</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>923.8270671584188</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
         <v>829.5248650203655</v>
@@ -7123,22 +7125,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.8270671584188</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7204,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>384.2867411876791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C39" t="n">
-        <v>384.2867411876791</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D39" t="n">
-        <v>235.3523315264278</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E39" t="n">
-        <v>76.1148765209723</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F39" t="n">
-        <v>76.1148765209723</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G39" t="n">
-        <v>76.1148765209723</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
-        <v>76.1148765209723</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,10 +7259,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7287,16 +7289,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>627.7355178317791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>384.2867411876791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X39" t="n">
-        <v>384.2867411876791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y39" t="n">
-        <v>384.2867411876791</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
         <v>829.5248650203655</v>
@@ -7354,28 +7356,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C41" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7421,7 +7423,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
         <v>822.0713777531216</v>
@@ -7442,19 +7444,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y41" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7493,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M42" t="n">
-        <v>345.7514872519972</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N42" t="n">
-        <v>549.2141532458947</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
         <v>752.6768192397923</v>
@@ -7521,19 +7523,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>614.4775954922324</v>
+        <v>807.4381113577983</v>
       </c>
       <c r="V42" t="n">
-        <v>406.8838132313431</v>
+        <v>599.8443290969091</v>
       </c>
       <c r="W42" t="n">
-        <v>199.2900309704538</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="X42" t="n">
-        <v>199.2900309704538</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="Y42" t="n">
-        <v>16.44142755506243</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="43">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7667,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T44" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W44" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X44" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>190.8944568361894</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>211.6833797714288</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>415.1460457653264</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>618.608711759224</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>441.0602509429012</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>441.0602509429012</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>441.0602509429012</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X45" t="n">
-        <v>441.0602509429012</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y45" t="n">
-        <v>233.4664686820119</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H46" t="n">
         <v>16.44142755506243</v>
@@ -7843,13 +7845,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7984,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8061,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8219,13 +8221,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N8" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>265.6729592778915</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
@@ -8544,13 +8546,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>230.174158102173</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,16 +8929,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9009,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
@@ -9018,10 +9020,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9246,7 +9248,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>369.8307175917693</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9261,7 +9263,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>255.5148970497678</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9495,10 +9497,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,19 +9719,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9957,16 +9959,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10431,16 +10433,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,13 +10679,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,13 +10907,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11069,10 +11071,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P41" t="n">
         <v>231.2329957552695</v>
@@ -11139,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>269.2526134200356</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
@@ -11154,7 +11156,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11376,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>335.768472927719</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11388,13 +11390,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22595,25 +22597,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22680,19 +22682,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
         <v>185.5043079680906</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>201.7137242822432</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C5" t="n">
         <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22847,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22863,16 +22865,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>18.44134906598205</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>19.28362006203402</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22911,10 +22913,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>115.6226874585631</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23103,7 +23105,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23115,10 +23117,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>87.68171185113256</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>56.56817236107425</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23157,16 +23159,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23197,10 +23199,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23270,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>396.1010274296599</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,13 +23305,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23318,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23337,25 +23339,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23388,13 +23390,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23403,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>20.05605397886612</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23510,13 +23512,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -23546,13 +23548,13 @@
         <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>213.8848386932009</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>296.6012590300472</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,22 +23576,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>202.8937390206026</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23671,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23741,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23753,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>301.3456830172615</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23808,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>103.6517501748945</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>329.5048015845142</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24026,7 +24028,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,13 +24050,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24063,13 +24065,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,10 +24098,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>145.644328508001</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24111,7 +24113,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>197.0115008599032</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24206,28 +24208,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>216.5306486674267</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24263,13 +24265,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24333,25 +24335,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>122.6508037197626</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24379,7 +24381,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24412,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24446,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24494,22 +24496,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24534,16 +24536,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>14.75355855760485</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>68.15368085983735</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24588,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24652,7 +24654,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>312.3898338622054</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24692,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>158.0503210826583</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24731,10 +24733,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24756,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1.666495616512549</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24777,10 +24779,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24819,13 +24821,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>104.2407391631661</v>
       </c>
     </row>
     <row r="31">
@@ -24917,7 +24919,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>270.8624047773015</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24935,7 +24937,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>116.0654025766999</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25014,7 +25016,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>54.73595870413449</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>171.7450842680437</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25087,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H34" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25166,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J35" t="n">
-        <v>0.7562331984329429</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25202,10 +25204,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>120.4592573625854</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25281,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25333,7 +25335,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
         <v>22.26949182588285</v>
@@ -25363,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>178.7568658833995</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25391,13 +25393,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>135.0690668140378</v>
       </c>
       <c r="D38" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25442,10 +25444,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25470,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25479,19 +25481,19 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>33.1312367747631</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25527,10 +25529,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25634,13 +25636,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>234.2826201338976</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25682,10 +25684,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25761,7 +25763,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269441</v>
+        <v>211.4544483496048</v>
       </c>
       <c r="V42" t="n">
         <v>27.28274271114486</v>
@@ -25773,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>24.66257839606692</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>397.665034870781</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>27.99995220500799</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>124.3868919225031</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,7 +25994,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26001,16 +26003,16 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>25.49945914849792</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26038,7 +26040,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>441976.4679730399</v>
+        <v>441976.4679730398</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>441976.4679730398</v>
+        <v>441976.46797304</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>441976.46797304</v>
+        <v>441976.4679730399</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>465547.6078130901</v>
+        <v>465547.6078130902</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>465547.6078130902</v>
+        <v>465547.6078130901</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>465547.60781309</v>
+        <v>465547.6078130901</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>465547.6078130901</v>
+        <v>465547.6078130902</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>465547.6078130901</v>
+        <v>465547.6078130902</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>465547.6078130902</v>
+        <v>465547.6078130901</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>441976.46797304</v>
+        <v>441976.4679730398</v>
       </c>
     </row>
     <row r="16">
@@ -26326,16 +26328,16 @@
         <v>149869.759743185</v>
       </c>
       <c r="G2" t="n">
+        <v>157852.6389047658</v>
+      </c>
+      <c r="H2" t="n">
         <v>157852.6389047657</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>157852.6389047657</v>
+      </c>
+      <c r="J2" t="n">
         <v>157852.6389047658</v>
-      </c>
-      <c r="I2" t="n">
-        <v>157852.6389047658</v>
-      </c>
-      <c r="J2" t="n">
-        <v>157852.6389047657</v>
       </c>
       <c r="K2" t="n">
         <v>157852.6389047658</v>
@@ -26433,25 +26435,25 @@
         <v>42017.42535589615</v>
       </c>
       <c r="H4" t="n">
+        <v>42017.42535589615</v>
+      </c>
+      <c r="I4" t="n">
         <v>42017.42535589614</v>
       </c>
-      <c r="I4" t="n">
-        <v>42017.42535589615</v>
-      </c>
       <c r="J4" t="n">
-        <v>42017.42535589615</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="K4" t="n">
         <v>42017.42535589615</v>
       </c>
       <c r="L4" t="n">
+        <v>42017.42535589614</v>
+      </c>
+      <c r="M4" t="n">
         <v>42017.42535589615</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>42017.42535589614</v>
-      </c>
-      <c r="N4" t="n">
-        <v>42017.42535589615</v>
       </c>
       <c r="O4" t="n">
         <v>39848.29285289707</v>
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4975.374633249376</v>
+        <v>-4975.374633249339</v>
       </c>
       <c r="C6" t="n">
-        <v>63898.38194844051</v>
+        <v>63898.3819484405</v>
       </c>
       <c r="D6" t="n">
-        <v>63898.38194844048</v>
+        <v>63898.3819484405</v>
       </c>
       <c r="E6" t="n">
         <v>97525.9819484405</v>
       </c>
       <c r="F6" t="n">
-        <v>97525.98194844046</v>
+        <v>97525.9819484405</v>
       </c>
       <c r="G6" t="n">
-        <v>91452.50181094083</v>
+        <v>91452.50181094088</v>
       </c>
       <c r="H6" t="n">
-        <v>101181.544785108</v>
+        <v>101181.5447851079</v>
       </c>
       <c r="I6" t="n">
-        <v>101181.544785108</v>
+        <v>101181.5447851079</v>
       </c>
       <c r="J6" t="n">
-        <v>47409.03389489849</v>
+        <v>47409.03389489852</v>
       </c>
       <c r="K6" t="n">
         <v>101181.544785108</v>
@@ -26558,10 +26560,10 @@
         <v>101181.5447851079</v>
       </c>
       <c r="O6" t="n">
-        <v>97525.98194844046</v>
+        <v>97525.9819484405</v>
       </c>
       <c r="P6" t="n">
-        <v>97525.98194844047</v>
+        <v>97525.98194844044</v>
       </c>
     </row>
   </sheetData>
@@ -34702,13 +34704,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34781,19 +34783,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34939,13 +34941,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N8" t="n">
-        <v>171.5974510766996</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
@@ -35264,13 +35266,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,13 +35494,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,16 +35649,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35729,7 +35731,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
@@ -35738,10 +35740,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35966,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>231.276337811895</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>113.3808631277495</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36215,10 +36217,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36677,16 +36679,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -37151,16 +37153,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37385,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,13 +37627,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37789,10 +37791,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37859,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>127.1185794980173</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
@@ -37874,7 +37876,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38096,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38108,13 +38110,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>638753.7763047757</v>
+        <v>534521.2780413325</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5246284.349180726</v>
+        <v>5246284.349180725</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>47.29627918133471</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>205.5178444382804</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,58 +898,58 @@
         <v>181.0201173812374</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>125.7855923313499</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>85.46880764579521</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1135,14 +1135,14 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>31.1509994400877</v>
       </c>
     </row>
     <row r="9">
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>32.82846049034082</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X9" t="n">
         <v>205.5178444382804</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,76 +1369,76 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>181.0201173812374</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
+        <v>26.69961786573946</v>
+      </c>
+      <c r="W12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>185.6266417984382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T14" t="n">
+      <c r="Y14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V14" t="n">
-        <v>31.1509994400877</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>91.62348452982235</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>29.90684812882265</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,26 +1843,26 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>80.33470701582003</v>
       </c>
     </row>
     <row r="18">
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>98.38353541244602</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -1985,10 +1985,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>8.761484343574239</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2326,58 +2326,58 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>190.3453970742847</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
@@ -2402,22 +2402,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>3.376364322274058</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,16 +2450,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>104.7383832473596</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,20 +2560,20 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>103.5294902440005</v>
+        <v>118.3968738826469</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2693,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>70.34400780127524</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>101.4419566141382</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2952,67 +2952,67 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,11 +3028,11 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="C32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3128,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="T33" t="n">
-        <v>28.41964442677785</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3201,46 +3201,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3268,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
@@ -3286,7 +3286,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3356,16 +3356,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.94281254009715</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3410,7 +3410,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3547,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>41.7314554634327</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3584,28 +3584,28 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>45.28887413297245</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>144.2395975293023</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>80.86228322859426</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>14.48693373137006</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W42" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3942,19 +3942,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3985,22 +3985,22 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>9.211010870930394</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>205.5178444382804</v>
@@ -4121,10 +4121,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>180.2735260549796</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="46">
@@ -4152,40 +4152,40 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E2" t="n">
         <v>16.44142755506243</v>
@@ -4336,10 +4336,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
         <v>583.2163723184226</v>
@@ -4357,25 +4357,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>190.8944568361894</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
         <v>16.44142755506243</v>
@@ -4418,16 +4418,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9652341458732</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4436,25 +4436,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U3" t="n">
-        <v>614.4775954922324</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V3" t="n">
-        <v>566.7035761171468</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="W3" t="n">
-        <v>359.1097938562575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X3" t="n">
-        <v>359.1097938562575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>359.1097938562575</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4506,22 +4506,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
         <v>16.44142755506243</v>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4576,13 +4576,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4597,22 +4597,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>451.6694460918196</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C6" t="n">
-        <v>451.6694460918196</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D6" t="n">
-        <v>302.7350364305683</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E6" t="n">
-        <v>143.4975814251128</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4655,43 +4655,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N6" t="n">
-        <v>549.2141532458947</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O6" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>619.8847831118876</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U6" t="n">
-        <v>619.8847831118876</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="V6" t="n">
-        <v>619.8847831118876</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="W6" t="n">
-        <v>619.8847831118876</v>
+        <v>103.5276891429948</v>
       </c>
       <c r="X6" t="n">
-        <v>619.8847831118876</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y6" t="n">
-        <v>619.8847831118876</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
         <v>16.44142755506243</v>
@@ -4752,25 +4752,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4783,10 +4783,10 @@
         <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E8" t="n">
         <v>16.44142755506243</v>
@@ -4828,25 +4828,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X8" t="n">
-        <v>639.2227743377304</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y8" t="n">
         <v>431.628992076841</v>
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>50.35562130920252</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>50.35562130920252</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>50.35562130920252</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>50.35562130920252</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>50.35562130920252</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>142.2888212580996</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M9" t="n">
-        <v>345.7514872519972</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N9" t="n">
-        <v>549.2141532458947</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4919,16 +4919,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W9" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X9" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y9" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5053,7 +5053,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
         <v>732.4113224610707</v>
@@ -5062,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>396.792197863116</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="W11" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.19556020784815</v>
+        <v>278.7449728087344</v>
       </c>
       <c r="C12" t="n">
-        <v>17.19556020784815</v>
+        <v>278.7449728087344</v>
       </c>
       <c r="D12" t="n">
-        <v>17.19556020784815</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="E12" t="n">
-        <v>17.19556020784815</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="F12" t="n">
-        <v>17.19556020784815</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="G12" t="n">
-        <v>17.19556020784815</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P12" t="n">
         <v>752.6768192397923</v>
@@ -5144,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T12" t="n">
-        <v>619.8847831118876</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U12" t="n">
-        <v>412.2910008509983</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V12" t="n">
-        <v>204.697218590109</v>
+        <v>486.3387550696236</v>
       </c>
       <c r="W12" t="n">
-        <v>204.697218590109</v>
+        <v>278.7449728087344</v>
       </c>
       <c r="X12" t="n">
-        <v>204.697218590109</v>
+        <v>278.7449728087344</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.19556020784815</v>
+        <v>278.7449728087344</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5229,22 +5229,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H14" t="n">
         <v>16.44142755506243</v>
@@ -5287,7 +5287,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5302,28 +5302,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>255.5008658160403</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>47.90708355515102</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>107.4951893506917</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C15" t="n">
-        <v>107.4951893506917</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D15" t="n">
-        <v>107.4951893506917</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E15" t="n">
-        <v>107.4951893506917</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F15" t="n">
-        <v>107.4951893506917</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G15" t="n">
-        <v>107.4951893506917</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5363,46 +5363,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>137.7041268545529</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V15" t="n">
-        <v>107.4951893506917</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W15" t="n">
-        <v>107.4951893506917</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X15" t="n">
-        <v>107.4951893506917</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y15" t="n">
-        <v>107.4951893506917</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5454,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W17" t="n">
-        <v>720.6083788665362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X17" t="n">
-        <v>720.6083788665362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y17" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>119.4125842604187</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>119.4125842604187</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>119.4125842604187</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5600,13 +5600,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
         <v>894.6625969973069</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>119.4125842604187</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>119.4125842604187</v>
       </c>
     </row>
     <row r="19">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>315.6850394389064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C20" t="n">
-        <v>315.6850394389064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D20" t="n">
-        <v>72.23626279480629</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V20" t="n">
-        <v>802.5825927271064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W20" t="n">
-        <v>802.5825927271064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X20" t="n">
-        <v>802.5825927271064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y20" t="n">
-        <v>559.1338160830064</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>685.8223048580254</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>511.3692755768984</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5834,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>862.8876260635219</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X21" t="n">
-        <v>854.0376418780934</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y21" t="n">
-        <v>854.0376418780934</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5937,13 +5937,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V23" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>398.2566246559538</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6074,19 +6074,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>125.0774898247174</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W24" t="n">
-        <v>19.28114311021272</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>547.1910343172051</v>
       </c>
     </row>
     <row r="25">
@@ -6174,16 +6174,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6208,16 +6208,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6250,19 +6250,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V26" t="n">
-        <v>262.7299197543128</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W26" t="n">
         <v>262.7299197543128</v>
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>307.1033079837604</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C27" t="n">
-        <v>132.6502787026334</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D27" t="n">
-        <v>132.6502787026334</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E27" t="n">
-        <v>132.6502787026334</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F27" t="n">
-        <v>132.6502787026334</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6314,13 +6314,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>758.3123833928144</v>
+        <v>844.4643536089727</v>
       </c>
       <c r="T27" t="n">
-        <v>758.3123833928144</v>
+        <v>844.4643536089727</v>
       </c>
       <c r="U27" t="n">
-        <v>758.3123833928144</v>
+        <v>844.4643536089727</v>
       </c>
       <c r="V27" t="n">
-        <v>758.3123833928144</v>
+        <v>609.3122453772301</v>
       </c>
       <c r="W27" t="n">
-        <v>514.8636067487143</v>
+        <v>365.86346873313</v>
       </c>
       <c r="X27" t="n">
-        <v>514.8636067487143</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y27" t="n">
-        <v>307.1033079837604</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="28">
@@ -6414,13 +6414,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T29" t="n">
-        <v>577.2332497330343</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U29" t="n">
-        <v>577.2332497330343</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V29" t="n">
-        <v>577.2332497330343</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W29" t="n">
-        <v>577.2332497330343</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X29" t="n">
-        <v>577.2332497330343</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y29" t="n">
-        <v>577.2332497330343</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>592.2056662008901</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>417.752636919763</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>268.8182272585117</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6548,46 +6548,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W30" t="n">
-        <v>862.8876260635219</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>862.8876260635219</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>760.421003220958</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>114.6452713866835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>601.5428246748836</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V32" t="n">
-        <v>601.5428246748836</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W32" t="n">
-        <v>601.5428246748836</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X32" t="n">
-        <v>601.5428246748836</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y32" t="n">
-        <v>358.0940480307835</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>284.787934186969</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6791,10 +6791,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="T33" t="n">
-        <v>660.7635699719909</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U33" t="n">
-        <v>660.7635699719909</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V33" t="n">
-        <v>660.7635699719909</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W33" t="n">
-        <v>660.7635699719909</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X33" t="n">
-        <v>660.7635699719909</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>453.003271207037</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C35" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D35" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E35" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F35" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G35" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>237.752183214564</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>99.02135779717955</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>99.02135779717955</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7028,7 +7028,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O36" t="n">
         <v>781.4136778972854</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>562.4161926976942</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>327.2640844659515</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W36" t="n">
-        <v>83.81530782185143</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>495.259035872464</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>738.7078125165641</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>495.259035872464</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V38" t="n">
-        <v>495.259035872464</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W38" t="n">
-        <v>495.259035872464</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X38" t="n">
-        <v>495.259035872464</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y38" t="n">
-        <v>495.259035872464</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>862.8876260635219</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7259,10 +7259,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>644.9432478003937</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>644.9432478003937</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X39" t="n">
-        <v>862.8876260635219</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y39" t="n">
-        <v>862.8876260635219</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7423,7 +7423,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
         <v>822.0713777531216</v>
@@ -7441,22 +7441,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.44142755506243</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="E42" t="n">
         <v>16.44142755506243</v>
@@ -7496,10 +7496,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N42" t="n">
         <v>366.5706756325438</v>
@@ -7514,28 +7514,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U42" t="n">
-        <v>807.4381113577983</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V42" t="n">
-        <v>599.8443290969091</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W42" t="n">
-        <v>392.2505468360198</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X42" t="n">
-        <v>392.2505468360198</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="Y42" t="n">
-        <v>184.6567645751305</v>
+        <v>98.12050152333947</v>
       </c>
     </row>
     <row r="43">
@@ -7590,16 +7590,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>63.94135112442973</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>63.94135112442973</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
         <v>16.44142755506243</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>453.0030327087026</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C44" t="n">
-        <v>453.0030327087026</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D44" t="n">
-        <v>453.0030327087026</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="E44" t="n">
-        <v>245.4092504478133</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F44" t="n">
-        <v>236.1051990630351</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G44" t="n">
-        <v>28.51141680214578</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7678,22 +7678,22 @@
         <v>453.0030327087026</v>
       </c>
       <c r="T44" t="n">
-        <v>453.0030327087026</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U44" t="n">
-        <v>453.0030327087026</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V44" t="n">
-        <v>453.0030327087026</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="W44" t="n">
-        <v>453.0030327087026</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="X44" t="n">
-        <v>453.0030327087026</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="Y44" t="n">
-        <v>453.0030327087026</v>
+        <v>37.81546818692397</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N45" t="n">
-        <v>752.1869855945927</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
         <v>752.6768192397923</v>
@@ -7760,19 +7760,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V45" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="V45" t="n">
+      <c r="W45" t="n">
         <v>406.8838132313431</v>
       </c>
-      <c r="W45" t="n">
+      <c r="X45" t="n">
         <v>199.2900309704538</v>
       </c>
-      <c r="X45" t="n">
-        <v>17.19556020784815</v>
-      </c>
       <c r="Y45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
         <v>16.44142755506243</v>
@@ -7833,25 +7833,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7984,13 +7984,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8066,19 +8066,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8224,16 +8224,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8303,19 +8303,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N6" t="n">
-        <v>131.836493543131</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>265.6729592778915</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
@@ -8549,10 +8549,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8701,10 +8701,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8771,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>269.7148239424616</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8935,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>160.0786444523452</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
@@ -9020,13 +9020,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,7 +9248,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9257,7 +9257,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,7 +9722,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
@@ -9731,13 +9731,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>198.1125443848066</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10196,22 +10196,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,13 +10439,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10676,10 +10676,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5030352242461</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10907,13 +10907,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11071,10 +11071,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>231.2329957552695</v>
@@ -11144,13 +11144,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>163.6582985944894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>200.9102526910243</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22597,16 +22597,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22625,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22676,19 +22676,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>185.5043079680906</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>237.0049211400612</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22764,7 +22764,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22786,7 +22786,7 @@
         <v>201.7137242822431</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22837,7 +22837,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22862,19 +22862,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28362006203402</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22922,13 +22922,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>120.3041775576823</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22962,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.6226874585631</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -22992,7 +22992,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23023,13 +23023,13 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23068,10 +23068,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>355.0869392159659</v>
       </c>
     </row>
     <row r="9">
@@ -23105,7 +23105,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23120,10 +23120,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>56.56817236107425</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23159,10 +23159,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>70.67486577968219</v>
       </c>
       <c r="X9" t="n">
         <v>0.2551407651970692</v>
@@ -23205,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23302,31 +23302,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>168.2208513361757</v>
+        <v>178.2115505507204</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23342,7 +23342,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23354,13 +23354,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>206.1009692836858</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.05605397886612</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23500,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23512,7 +23512,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>158.4546847345297</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23542,28 +23542,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>296.6012590300472</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23591,13 +23591,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>20.61195970667411</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>202.8937390206026</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23679,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,13 +23743,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23779,28 +23779,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>305.9032316402336</v>
       </c>
     </row>
     <row r="18">
@@ -23819,7 +23819,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>59.26154504295492</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23873,10 +23873,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>329.5048015845142</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>195.0896117727101</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24062,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>197.0115008599032</v>
+        <v>171.1123110561969</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24177,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24186,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24214,10 +24214,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>216.5306486674267</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24259,13 +24259,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>97.54843351316518</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
@@ -24290,22 +24290,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>154.2687161331269</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24338,16 +24338,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>146.95659991356</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24414,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24460,7 +24460,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24490,22 +24490,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>268.906261701593</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24536,10 +24536,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>68.15368085983735</v>
+        <v>53.28629722119096</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24581,16 +24581,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24654,7 +24654,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>312.3898338622054</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,16 +24688,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>147.6414643519508</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24779,7 +24779,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24815,19 +24815,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>104.2407391631661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24937,7 +24937,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>116.0654025766999</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24964,19 +24964,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25016,10 +25016,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25046,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>36.26901108812098</v>
       </c>
       <c r="T33" t="n">
-        <v>171.7450842680437</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25165,7 +25165,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
@@ -25174,7 +25174,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25213,7 +25213,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25244,16 +25244,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>10.45382031131793</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>141.8841621389552</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25365,10 +25365,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25393,10 +25393,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>135.0690668140378</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25411,7 +25411,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25435,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>307.5095132539803</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25472,28 +25472,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>127.4196248553433</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>81.70178455167255</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25681,16 +25681,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U41" t="n">
         <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
-        <v>146.7321410888975</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25715,7 +25715,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>76.78279722680668</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25763,16 +25763,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>211.4544483496048</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25830,19 +25830,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2941050228173</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25873,22 +25873,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>397.665034870781</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>189.315589344863</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>27.28274271114486</v>
@@ -26009,10 +26009,10 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>25.49945914849792</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>24.66257839606692</v>
       </c>
     </row>
     <row r="46">
@@ -26040,7 +26040,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26073,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>441976.4679730398</v>
+        <v>441976.4679730399</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>441976.46797304</v>
+        <v>441976.4679730399</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>441976.4679730399</v>
+        <v>441976.4679730398</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465547.6078130901</v>
+        <v>465547.60781309</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>465547.6078130902</v>
+        <v>465547.60781309</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>465547.6078130901</v>
+        <v>465547.60781309</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>465547.6078130902</v>
+        <v>465547.6078130901</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>465547.6078130902</v>
+        <v>465547.60781309</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>465547.6078130901</v>
+        <v>465547.60781309</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>441976.4679730398</v>
+        <v>441976.4679730399</v>
       </c>
     </row>
     <row r="16">
@@ -26331,13 +26331,13 @@
         <v>157852.6389047658</v>
       </c>
       <c r="H2" t="n">
+        <v>157852.6389047658</v>
+      </c>
+      <c r="I2" t="n">
+        <v>157852.6389047658</v>
+      </c>
+      <c r="J2" t="n">
         <v>157852.6389047657</v>
-      </c>
-      <c r="I2" t="n">
-        <v>157852.6389047657</v>
-      </c>
-      <c r="J2" t="n">
-        <v>157852.6389047658</v>
       </c>
       <c r="K2" t="n">
         <v>157852.6389047658</v>
@@ -26349,7 +26349,7 @@
         <v>157852.6389047658</v>
       </c>
       <c r="N2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="O2" t="n">
         <v>149869.759743185</v>
@@ -26435,25 +26435,25 @@
         <v>42017.42535589615</v>
       </c>
       <c r="H4" t="n">
+        <v>42017.42535589614</v>
+      </c>
+      <c r="I4" t="n">
         <v>42017.42535589615</v>
       </c>
-      <c r="I4" t="n">
-        <v>42017.42535589614</v>
-      </c>
       <c r="J4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="K4" t="n">
         <v>42017.42535589615</v>
       </c>
       <c r="L4" t="n">
+        <v>42017.42535589615</v>
+      </c>
+      <c r="M4" t="n">
         <v>42017.42535589614</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>42017.42535589615</v>
-      </c>
-      <c r="N4" t="n">
-        <v>42017.42535589614</v>
       </c>
       <c r="O4" t="n">
         <v>39848.29285289707</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4975.374633249339</v>
+        <v>-17613.53678810987</v>
       </c>
       <c r="C6" t="n">
-        <v>63898.3819484405</v>
+        <v>51260.21979358</v>
       </c>
       <c r="D6" t="n">
-        <v>63898.3819484405</v>
+        <v>51260.21979357997</v>
       </c>
       <c r="E6" t="n">
-        <v>97525.9819484405</v>
+        <v>84887.81979357997</v>
       </c>
       <c r="F6" t="n">
-        <v>97525.9819484405</v>
+        <v>84887.81979357997</v>
       </c>
       <c r="G6" t="n">
-        <v>91452.50181094088</v>
+        <v>79234.49119090039</v>
       </c>
       <c r="H6" t="n">
-        <v>101181.5447851079</v>
+        <v>88963.53416506751</v>
       </c>
       <c r="I6" t="n">
-        <v>101181.5447851079</v>
+        <v>88963.53416506748</v>
       </c>
       <c r="J6" t="n">
-        <v>47409.03389489852</v>
+        <v>35191.02327485802</v>
       </c>
       <c r="K6" t="n">
-        <v>101181.544785108</v>
+        <v>88963.53416506748</v>
       </c>
       <c r="L6" t="n">
-        <v>101181.5447851079</v>
+        <v>88963.53416506745</v>
       </c>
       <c r="M6" t="n">
-        <v>101181.544785108</v>
+        <v>88963.53416506748</v>
       </c>
       <c r="N6" t="n">
-        <v>101181.5447851079</v>
+        <v>88963.53416506748</v>
       </c>
       <c r="O6" t="n">
-        <v>97525.9819484405</v>
+        <v>84887.81979358</v>
       </c>
       <c r="P6" t="n">
-        <v>97525.98194844044</v>
+        <v>84887.81979357994</v>
       </c>
     </row>
   </sheetData>
@@ -34704,13 +34704,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34786,19 +34786,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,16 +34944,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
+        <v>171.5974510766996</v>
+      </c>
+      <c r="N5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N5" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="N6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N6" t="n">
-        <v>0.4947814597977008</v>
-      </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>127.1185794980173</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
@@ -35269,10 +35269,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35421,10 +35421,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35655,10 +35655,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N14" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35731,7 +35731,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
@@ -35740,13 +35740,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35968,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35977,7 +35977,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
@@ -36451,13 +36451,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>55.51629994036219</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,13 +37159,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37396,10 +37396,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O36" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37627,13 +37627,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37791,10 +37791,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="N42" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>0.494781459797586</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
